--- a/Altium/BOM.xlsx
+++ b/Altium/BOM.xlsx
@@ -39,40 +39,40 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C8, C9, C22</t>
+  </si>
+  <si>
+    <t>0402CAP</t>
+  </si>
+  <si>
+    <t>GCM155R71H104KE02D</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>FP-GRT31C-0_2-IPC_B</t>
+  </si>
+  <si>
+    <t>GRT31CR61H106ME01L</t>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C1, C8, C11, C16</t>
+    <t>C7, C10, C11, C16</t>
   </si>
   <si>
     <t>0603CAP</t>
   </si>
   <si>
     <t>GRT188R61H105ME13D</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C5, C6, C9, C10, C22</t>
-  </si>
-  <si>
-    <t>0402CAP</t>
-  </si>
-  <si>
-    <t>GCM155R71H104KE02D</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>FP-GRT31C-0_2-IPC_B</t>
-  </si>
-  <si>
-    <t>GRT31CR61H106ME01L</t>
   </si>
   <si>
     <t>22pF</t>
@@ -676,16 +676,14 @@
         <v>10</v>
       </c>
       <c r="F2" s="24">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
@@ -696,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="27">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -730,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>21</v>
@@ -843,9 +841,7 @@
       <c r="A11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
         <v>47</v>
       </c>
@@ -883,9 +879,7 @@
       <c r="A13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
         <v>55</v>
       </c>
@@ -963,9 +957,7 @@
       <c r="A17" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
         <v>67</v>
       </c>
@@ -1023,9 +1015,7 @@
       <c r="A20" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
         <v>77</v>
       </c>
@@ -1043,9 +1033,7 @@
       <c r="A21" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
         <v>80</v>
       </c>
@@ -1083,9 +1071,7 @@
       <c r="A23" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="16" t="s">
         <v>86</v>
       </c>
@@ -1103,9 +1089,7 @@
       <c r="A24" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
         <v>88</v>
       </c>
@@ -1123,9 +1107,7 @@
       <c r="A25" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
         <v>91</v>
       </c>
@@ -1143,9 +1125,7 @@
       <c r="A26" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="16" t="s">
         <v>94</v>
       </c>
@@ -1163,9 +1143,7 @@
       <c r="A27" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
         <v>97</v>
       </c>
